--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12795"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,29 +15,172 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡怪物波次</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关卡BOSS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+激活BOSS需要魔气</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+首次通关奖励</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+常规地图</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
-  <si>
-    <t>关卡ID</t>
-  </si>
-  <si>
-    <t>关卡名称</t>
-  </si>
-  <si>
-    <t>关卡怪物波次</t>
-  </si>
-  <si>
-    <t>关卡BOSS</t>
-  </si>
-  <si>
-    <t>激活BOSS需要魔气</t>
-  </si>
-  <si>
-    <t>首次通关奖励</t>
-  </si>
-  <si>
-    <t>常规地图</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +195,9 @@
   </si>
   <si>
     <t>boss_gas</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
   <si>
     <t>map</t>
@@ -254,10 +400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,25 +414,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,34 +436,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,8 +459,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,24 +512,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,14 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,19 +567,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,42 +723,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,108 +748,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,13 +770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,15 +790,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +809,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,21 +858,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -720,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +878,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1255,513 +1401,493 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>20001001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20002001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20001001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>20002001</v>
+        <v>20003001</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>20003001</v>
+        <v>20004001</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>20004001</v>
+        <v>20005001</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>20005001</v>
+        <v>20006001</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>20006001</v>
+        <v>20007001</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>20007001</v>
+        <v>20008001</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
-        <v>20008001</v>
+        <v>20009001</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>20009001</v>
+        <v>20010001</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>20010001</v>
+        <v>20011001</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
-        <v>20011001</v>
+        <v>20012001</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
-        <v>20012001</v>
+        <v>20013001</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1">
-        <v>20013001</v>
+        <v>20014001</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
-        <v>20014001</v>
+        <v>20015001</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
-        <v>20015001</v>
+        <v>20016001</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1">
-        <v>20016001</v>
+        <v>20017001</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1">
-        <v>20017001</v>
+        <v>20018001</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>20018001</v>
+        <v>20019001</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
-        <v>20019001</v>
+        <v>20020001</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
-        <v>20020001</v>
+        <v>20021001</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20021001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>id</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>Reincarnation</t>
   </si>
   <si>
     <t>第1关</t>
@@ -402,8 +405,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -414,18 +417,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,7 +441,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -467,31 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,17 +523,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,10 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,14 +560,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -573,181 +576,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +761,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -785,15 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -809,6 +812,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -816,15 +843,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,21 +861,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,145 +869,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,21 +1366,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,16 +1403,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>20001001</v>
@@ -1417,21 +1424,24 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>20002001</v>
@@ -1440,21 +1450,24 @@
         <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>20003001</v>
@@ -1463,21 +1476,24 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>20004001</v>
@@ -1486,21 +1502,24 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>20005001</v>
@@ -1509,21 +1528,24 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>20006001</v>
@@ -1532,21 +1554,24 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>20007001</v>
@@ -1555,21 +1580,24 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>20008001</v>
@@ -1578,21 +1606,24 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>20009001</v>
@@ -1601,21 +1632,24 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>20010001</v>
@@ -1624,21 +1658,24 @@
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>20011001</v>
@@ -1647,21 +1684,24 @@
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>20012001</v>
@@ -1670,21 +1710,24 @@
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>20013001</v>
@@ -1693,21 +1736,24 @@
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>20014001</v>
@@ -1716,21 +1762,24 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>20015001</v>
@@ -1739,21 +1788,24 @@
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>20016001</v>
@@ -1762,21 +1814,24 @@
         <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
         <v>20017001</v>
@@ -1785,21 +1840,24 @@
         <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>20018001</v>
@@ -1808,21 +1866,24 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1">
         <v>20019001</v>
@@ -1831,21 +1892,24 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
         <v>20020001</v>
@@ -1854,21 +1918,24 @@
         <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1">
         <v>20021001</v>
@@ -1877,10 +1944,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\倒表用配置表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F12455DF-B915-48FA-88F5-4379237B5656}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -58,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -102,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,13 +123,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -124,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,13 +147,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -146,6 +163,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,13 +171,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -168,6 +187,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -396,19 +416,104 @@
   </si>
   <si>
     <t>map_21</t>
+  </si>
+  <si>
+    <t>第22关</t>
+  </si>
+  <si>
+    <t>第23关</t>
+  </si>
+  <si>
+    <t>第24关</t>
+  </si>
+  <si>
+    <t>第25关</t>
+  </si>
+  <si>
+    <t>第26关</t>
+  </si>
+  <si>
+    <t>第27关</t>
+  </si>
+  <si>
+    <t>第28关</t>
+  </si>
+  <si>
+    <t>第29关</t>
+  </si>
+  <si>
+    <t>第30关</t>
+  </si>
+  <si>
+    <t>第31关</t>
+  </si>
+  <si>
+    <t>第32关</t>
+  </si>
+  <si>
+    <t>第33关</t>
+  </si>
+  <si>
+    <t>第34关</t>
+  </si>
+  <si>
+    <t>第35关</t>
+  </si>
+  <si>
+    <t>第36关</t>
+  </si>
+  <si>
+    <t>第37关</t>
+  </si>
+  <si>
+    <t>第38关</t>
+  </si>
+  <si>
+    <t>第39关</t>
+  </si>
+  <si>
+    <t>第40关</t>
+  </si>
+  <si>
+    <t>第41关</t>
+  </si>
+  <si>
+    <t>第42关</t>
+  </si>
+  <si>
+    <t>第43关</t>
+  </si>
+  <si>
+    <t>第44关</t>
+  </si>
+  <si>
+    <t>第45关</t>
+  </si>
+  <si>
+    <t>第46关</t>
+  </si>
+  <si>
+    <t>第47关</t>
+  </si>
+  <si>
+    <t>第48关</t>
+  </si>
+  <si>
+    <t>第49关</t>
+  </si>
+  <si>
+    <t>第50关</t>
+  </si>
+  <si>
+    <t>22001#22002#22003#22004#22005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,344 +523,41 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -763,251 +565,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,61 +579,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,28 +876,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1418,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>20001001</v>
+        <v>100130001</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
@@ -1433,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1444,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>20002001</v>
+        <v>100230001</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -1459,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1470,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>20003001</v>
+        <v>100330001</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -1485,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1496,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>20004001</v>
+        <v>100430001</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1511,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1522,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>20005001</v>
+        <v>100530001</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -1537,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1548,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>20006001</v>
+        <v>100630001</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1563,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1574,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="1">
-        <v>20007001</v>
+        <v>100730001</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -1589,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1600,7 +1116,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>20008001</v>
+        <v>100830001</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1615,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1626,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="1">
-        <v>20009001</v>
+        <v>100930001</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -1641,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1652,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>20010001</v>
+        <v>101030001</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -1667,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1678,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>20011001</v>
+        <v>101130001</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1693,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1704,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="1">
-        <v>20012001</v>
+        <v>101230001</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1719,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1730,7 +1246,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="1">
-        <v>20013001</v>
+        <v>101330001</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
@@ -1745,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1756,7 +1272,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="1">
-        <v>20014001</v>
+        <v>101430001</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -1771,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1782,7 +1298,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="1">
-        <v>20015001</v>
+        <v>101530001</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -1797,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1808,7 +1324,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="1">
-        <v>20016001</v>
+        <v>101630001</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -1823,7 +1339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1834,7 +1350,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="1">
-        <v>20017001</v>
+        <v>101730001</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -1849,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1860,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="1">
-        <v>20018001</v>
+        <v>101830001</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -1875,7 +1391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1886,7 +1402,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="1">
-        <v>20019001</v>
+        <v>101930001</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
@@ -1901,7 +1417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1912,7 +1428,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="1">
-        <v>20020001</v>
+        <v>102030001</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -1927,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1938,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="1">
-        <v>20021001</v>
+        <v>102130001</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
@@ -1953,44 +1469,820 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>102230001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="str">
+        <f>A24&amp;"001"&amp;"#"&amp;A24&amp;"002"&amp;"#"&amp;A24&amp;"003"&amp;"#"&amp;A24&amp;"004"&amp;"#"&amp;A24&amp;"005"</f>
+        <v>23001#23002#23003#23004#23005</v>
+      </c>
+      <c r="D24">
+        <v>102330001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C51" si="0">A25&amp;"001"&amp;"#"&amp;A25&amp;"002"&amp;"#"&amp;A25&amp;"003"&amp;"#"&amp;A25&amp;"004"&amp;"#"&amp;A25&amp;"005"</f>
+        <v>24001#24002#24003#24004#24005</v>
+      </c>
+      <c r="D25">
+        <v>102430001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>25001#25002#25003#25004#25005</v>
+      </c>
+      <c r="D26">
+        <v>102530001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>26001#26002#26003#26004#26005</v>
+      </c>
+      <c r="D27">
+        <v>102630001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>27001#27002#27003#27004#27005</v>
+      </c>
+      <c r="D28">
+        <v>102730001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>28001#28002#28003#28004#28005</v>
+      </c>
+      <c r="D29">
+        <v>102830001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>29001#29002#29003#29004#29005</v>
+      </c>
+      <c r="D30">
+        <v>102930001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>30001#30002#30003#30004#30005</v>
+      </c>
+      <c r="D31">
+        <v>103030001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>31001#31002#31003#31004#31005</v>
+      </c>
+      <c r="D32">
+        <v>103130001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>32001#32002#32003#32004#32005</v>
+      </c>
+      <c r="D33">
+        <v>103230001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>33001#33002#33003#33004#33005</v>
+      </c>
+      <c r="D34">
+        <v>103330001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>34001#34002#34003#34004#34005</v>
+      </c>
+      <c r="D35">
+        <v>103430001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>35001#35002#35003#35004#35005</v>
+      </c>
+      <c r="D36">
+        <v>103530001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>36001#36002#36003#36004#36005</v>
+      </c>
+      <c r="D37">
+        <v>103630001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>37001#37002#37003#37004#37005</v>
+      </c>
+      <c r="D38">
+        <v>103730001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>38001#38002#38003#38004#38005</v>
+      </c>
+      <c r="D39">
+        <v>103830001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>39001#39002#39003#39004#39005</v>
+      </c>
+      <c r="D40">
+        <v>103930001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>40001#40002#40003#40004#40005</v>
+      </c>
+      <c r="D41">
+        <v>104030001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>41001#41002#41003#41004#41005</v>
+      </c>
+      <c r="D42">
+        <v>104130001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>42001#42002#42003#42004#42005</v>
+      </c>
+      <c r="D43">
+        <v>104230001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>43001#43002#43003#43004#43005</v>
+      </c>
+      <c r="D44">
+        <v>104330001</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>44001#44002#44003#44004#44005</v>
+      </c>
+      <c r="D45">
+        <v>104430001</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>45001#45002#45003#45004#45005</v>
+      </c>
+      <c r="D46">
+        <v>104530001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>46001#46002#46003#46004#46005</v>
+      </c>
+      <c r="D47">
+        <v>104630001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>47001#47002#47003#47004#47005</v>
+      </c>
+      <c r="D48">
+        <v>104730001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>48001#48002#48003#48004#48005</v>
+      </c>
+      <c r="D49">
+        <v>104830001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>49001#49002#49003#49004#49005</v>
+      </c>
+      <c r="D50">
+        <v>104930001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>100</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>50001#50002#50003#50004#50005</v>
+      </c>
+      <c r="D51">
+        <v>105030001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\倒表用配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F12455DF-B915-48FA-88F5-4379237B5656}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC5AB617-0355-4EA6-A92F-9877131C4355}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -885,7 +885,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -946,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1050,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1102,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1128,7 +1128,7 @@
         <v>32</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1154,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1180,7 +1180,7 @@
         <v>38</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1206,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1232,7 +1232,7 @@
         <v>44</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1258,7 +1258,7 @@
         <v>47</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1284,7 +1284,7 @@
         <v>50</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1310,7 +1310,7 @@
         <v>53</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1336,7 +1336,7 @@
         <v>56</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1362,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>62</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1414,7 +1414,7 @@
         <v>65</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1440,7 +1440,7 @@
         <v>68</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1466,7 +1466,7 @@
         <v>71</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1492,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1600,7 +1600,7 @@
         <v>23</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1627,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1654,7 +1654,7 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1681,7 +1681,7 @@
         <v>32</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1708,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1735,7 +1735,7 @@
         <v>38</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1789,7 +1789,7 @@
         <v>44</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1816,7 +1816,7 @@
         <v>47</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1843,7 +1843,7 @@
         <v>50</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1870,7 +1870,7 @@
         <v>53</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1897,7 +1897,7 @@
         <v>56</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1924,7 +1924,7 @@
         <v>59</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1951,7 +1951,7 @@
         <v>62</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1978,7 +1978,7 @@
         <v>65</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2005,7 +2005,7 @@
         <v>68</v>
       </c>
       <c r="H42">
-        <v>41</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2032,7 +2032,7 @@
         <v>71</v>
       </c>
       <c r="H43">
-        <v>42</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2059,7 +2059,7 @@
         <v>11</v>
       </c>
       <c r="H44">
-        <v>43</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2086,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2113,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2140,7 +2140,7 @@
         <v>20</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2167,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="H48">
-        <v>47</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>48</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2248,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC5AB617-0355-4EA6-A92F-9877131C4355}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18420" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -67,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -91,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,14 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -115,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -123,14 +109,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -139,7 +124,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -147,14 +131,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -163,7 +146,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -171,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -187,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -200,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>id</t>
   </si>
@@ -421,6 +401,9 @@
     <t>第22关</t>
   </si>
   <si>
+    <t>22001#22002#22003#22004#22005</t>
+  </si>
+  <si>
     <t>第23关</t>
   </si>
   <si>
@@ -503,17 +486,19 @@
   </si>
   <si>
     <t>第50关</t>
-  </si>
-  <si>
-    <t>22001#22002#22003#22004#22005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,42 +507,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -565,9 +853,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -579,17 +1109,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -876,28 +1450,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +1497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -949,7 +1523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -975,7 +1549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1001,7 +1575,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1027,7 +1601,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1053,7 +1627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1079,7 +1653,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1105,7 +1679,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1131,7 +1705,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1157,7 +1731,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1183,7 +1757,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1209,7 +1783,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1235,7 +1809,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1261,7 +1835,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1287,7 +1861,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1313,7 +1887,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1339,7 +1913,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1365,7 +1939,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1391,7 +1965,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1417,7 +1991,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1443,7 +2017,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1469,7 +2043,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1477,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>102230001</v>
@@ -1495,12 +2069,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="str">
         <f>A24&amp;"001"&amp;"#"&amp;A24&amp;"002"&amp;"#"&amp;A24&amp;"003"&amp;"#"&amp;A24&amp;"004"&amp;"#"&amp;A24&amp;"005"</f>
@@ -1522,12 +2096,12 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ref="C25:C51" si="0">A25&amp;"001"&amp;"#"&amp;A25&amp;"002"&amp;"#"&amp;A25&amp;"003"&amp;"#"&amp;A25&amp;"004"&amp;"#"&amp;A25&amp;"005"</f>
@@ -1549,12 +2123,12 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1576,12 +2150,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1603,12 +2177,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1630,12 +2204,12 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1657,12 +2231,12 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1684,12 +2258,12 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1711,12 +2285,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1738,12 +2312,12 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1765,12 +2339,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1792,12 +2366,12 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -1819,12 +2393,12 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -1846,12 +2420,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -1873,12 +2447,12 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -1900,12 +2474,12 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -1927,12 +2501,12 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -1954,12 +2528,12 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -1981,12 +2555,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -2008,12 +2582,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -2035,12 +2609,12 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2062,12 +2636,12 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2089,12 +2663,12 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2116,12 +2690,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2143,12 +2717,12 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -2170,12 +2744,12 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2197,12 +2771,12 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -2224,12 +2798,12 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -2252,37 +2826,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\配置表1114\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="0" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -26,14 +21,13 @@
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -42,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,14 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -66,7 +58,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,14 +65,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -90,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,14 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -114,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -122,14 +109,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -138,7 +124,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -146,14 +131,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -162,7 +146,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,14 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -186,7 +168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430">
   <si>
     <t>id</t>
   </si>
@@ -225,10 +206,13 @@
     <t>Reincarnation</t>
   </si>
   <si>
+    <t>offlinereward</t>
+  </si>
+  <si>
     <t>第1关</t>
   </si>
   <si>
-    <t>1001#1002#1003#1004#1005</t>
+    <t>1001#1002</t>
   </si>
   <si>
     <t>map_01</t>
@@ -237,7 +221,7 @@
     <t>第2关</t>
   </si>
   <si>
-    <t>2001#2002#2003#2004#2005</t>
+    <t>2001#2002</t>
   </si>
   <si>
     <t>map_02</t>
@@ -246,7 +230,7 @@
     <t>第3关</t>
   </si>
   <si>
-    <t>3001#3002#3003#3004#3005</t>
+    <t>3001#3002</t>
   </si>
   <si>
     <t>map_03</t>
@@ -255,7 +239,7 @@
     <t>第4关</t>
   </si>
   <si>
-    <t>4001#4002#4003#4004#4005</t>
+    <t>4001#4002#4003</t>
   </si>
   <si>
     <t>map_04</t>
@@ -264,7 +248,7 @@
     <t>第5关</t>
   </si>
   <si>
-    <t>5001#5002#5003#5004#5005</t>
+    <t>5001#5002#5003</t>
   </si>
   <si>
     <t>map_05</t>
@@ -273,7 +257,7 @@
     <t>第6关</t>
   </si>
   <si>
-    <t>6001#6002#6003#6004#6005</t>
+    <t>6001#6002#6003#6004</t>
   </si>
   <si>
     <t>map_06</t>
@@ -282,7 +266,7 @@
     <t>第7关</t>
   </si>
   <si>
-    <t>7001#7002#7003#7004#7005</t>
+    <t>7001#7002#7003#7004</t>
   </si>
   <si>
     <t>map_07</t>
@@ -291,7 +275,7 @@
     <t>第8关</t>
   </si>
   <si>
-    <t>8001#8002#8003#8004#8005</t>
+    <t>8001#8002#8003#8004</t>
   </si>
   <si>
     <t>map_08</t>
@@ -300,7 +284,7 @@
     <t>第9关</t>
   </si>
   <si>
-    <t>9001#9002#9003#9004#9005</t>
+    <t>9001#9002#9003#9004</t>
   </si>
   <si>
     <t>map_09</t>
@@ -309,7 +293,7 @@
     <t>第10关</t>
   </si>
   <si>
-    <t>10001#10002#10003#10004#10005</t>
+    <t>10001#10002#10003#10004</t>
   </si>
   <si>
     <t>map_10</t>
@@ -423,166 +407,166 @@
     <t>第23关</t>
   </si>
   <si>
+    <t>23001#23002#23003#23004#23005</t>
+  </si>
+  <si>
     <t>第24关</t>
   </si>
   <si>
+    <t>24001#24002#24003#24004#24005</t>
+  </si>
+  <si>
     <t>第25关</t>
   </si>
   <si>
+    <t>25001#25002#25003#25004#25005</t>
+  </si>
+  <si>
     <t>第26关</t>
   </si>
   <si>
+    <t>26001#26002#26003#26004#26005</t>
+  </si>
+  <si>
     <t>第27关</t>
   </si>
   <si>
+    <t>27001#27002#27003#27004#27005</t>
+  </si>
+  <si>
     <t>第28关</t>
   </si>
   <si>
+    <t>28001#28002#28003#28004#28005</t>
+  </si>
+  <si>
     <t>第29关</t>
   </si>
   <si>
+    <t>29001#29002#29003#29004#29005</t>
+  </si>
+  <si>
     <t>第30关</t>
   </si>
   <si>
+    <t>30001#30002#30003#30004#30005</t>
+  </si>
+  <si>
     <t>第31关</t>
   </si>
   <si>
+    <t>31001#31002#31003#31004#31005</t>
+  </si>
+  <si>
     <t>第32关</t>
   </si>
   <si>
+    <t>32001#32002#32003#32004#32005</t>
+  </si>
+  <si>
     <t>第33关</t>
   </si>
   <si>
+    <t>33001#33002#33003#33004#33005</t>
+  </si>
+  <si>
     <t>第34关</t>
   </si>
   <si>
+    <t>34001#34002#34003#34004#34005</t>
+  </si>
+  <si>
     <t>第35关</t>
   </si>
   <si>
+    <t>35001#35002#35003#35004#35005</t>
+  </si>
+  <si>
     <t>第36关</t>
   </si>
   <si>
+    <t>36001#36002#36003#36004#36005</t>
+  </si>
+  <si>
     <t>第37关</t>
   </si>
   <si>
+    <t>37001#37002#37003#37004#37005</t>
+  </si>
+  <si>
     <t>第38关</t>
   </si>
   <si>
+    <t>38001#38002#38003#38004#38005</t>
+  </si>
+  <si>
     <t>第39关</t>
   </si>
   <si>
+    <t>39001#39002#39003#39004#39005</t>
+  </si>
+  <si>
     <t>第40关</t>
   </si>
   <si>
+    <t>40001#40002#40003#40004#40005</t>
+  </si>
+  <si>
     <t>第41关</t>
   </si>
   <si>
+    <t>41001#41002#41003#41004#41005</t>
+  </si>
+  <si>
     <t>第42关</t>
   </si>
   <si>
+    <t>42001#42002#42003#42004#42005</t>
+  </si>
+  <si>
     <t>第43关</t>
   </si>
   <si>
+    <t>43001#43002#43003#43004#43005</t>
+  </si>
+  <si>
     <t>第44关</t>
   </si>
   <si>
+    <t>44001#44002#44003#44004#44005</t>
+  </si>
+  <si>
     <t>第45关</t>
   </si>
   <si>
+    <t>45001#45002#45003#45004#45005</t>
+  </si>
+  <si>
     <t>第46关</t>
   </si>
   <si>
+    <t>46001#46002#46003#46004#46005</t>
+  </si>
+  <si>
     <t>第47关</t>
   </si>
   <si>
+    <t>47001#47002#47003#47004#47005</t>
+  </si>
+  <si>
     <t>第48关</t>
   </si>
   <si>
+    <t>48001#48002#48003#48004#48005</t>
+  </si>
+  <si>
     <t>第49关</t>
   </si>
   <si>
+    <t>49001#49002#49003#49004#49005</t>
+  </si>
+  <si>
     <t>第50关</t>
-  </si>
-  <si>
-    <t>23001#23002#23003#23004#23005</t>
-  </si>
-  <si>
-    <t>24001#24002#24003#24004#24005</t>
-  </si>
-  <si>
-    <t>25001#25002#25003#25004#25005</t>
-  </si>
-  <si>
-    <t>26001#26002#26003#26004#26005</t>
-  </si>
-  <si>
-    <t>27001#27002#27003#27004#27005</t>
-  </si>
-  <si>
-    <t>28001#28002#28003#28004#28005</t>
-  </si>
-  <si>
-    <t>29001#29002#29003#29004#29005</t>
-  </si>
-  <si>
-    <t>30001#30002#30003#30004#30005</t>
-  </si>
-  <si>
-    <t>31001#31002#31003#31004#31005</t>
-  </si>
-  <si>
-    <t>32001#32002#32003#32004#32005</t>
-  </si>
-  <si>
-    <t>33001#33002#33003#33004#33005</t>
-  </si>
-  <si>
-    <t>34001#34002#34003#34004#34005</t>
-  </si>
-  <si>
-    <t>35001#35002#35003#35004#35005</t>
-  </si>
-  <si>
-    <t>36001#36002#36003#36004#36005</t>
-  </si>
-  <si>
-    <t>37001#37002#37003#37004#37005</t>
-  </si>
-  <si>
-    <t>38001#38002#38003#38004#38005</t>
-  </si>
-  <si>
-    <t>39001#39002#39003#39004#39005</t>
-  </si>
-  <si>
-    <t>40001#40002#40003#40004#40005</t>
-  </si>
-  <si>
-    <t>41001#41002#41003#41004#41005</t>
-  </si>
-  <si>
-    <t>42001#42002#42003#42004#42005</t>
-  </si>
-  <si>
-    <t>43001#43002#43003#43004#43005</t>
-  </si>
-  <si>
-    <t>44001#44002#44003#44004#44005</t>
-  </si>
-  <si>
-    <t>45001#45002#45003#45004#45005</t>
-  </si>
-  <si>
-    <t>46001#46002#46003#46004#46005</t>
-  </si>
-  <si>
-    <t>47001#47002#47003#47004#47005</t>
-  </si>
-  <si>
-    <t>48001#48002#48003#48004#48005</t>
-  </si>
-  <si>
-    <t>49001#49002#49003#49004#49005</t>
   </si>
   <si>
     <t>50001#50002#50003#50004#50005</t>
@@ -1491,8 +1475,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,35 +1491,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1537,9 +1837,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1551,17 +2093,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1848,28 +2434,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="8" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,1165 +2480,1312 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>10013001</v>
       </c>
       <c r="E2" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>10023001</v>
       </c>
       <c r="E3" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>10033001</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>10043001</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>10053001</v>
       </c>
       <c r="E6" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>10063001</v>
       </c>
       <c r="E7" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>10073001</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>10083001</v>
       </c>
       <c r="E9" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>10093001</v>
       </c>
       <c r="E10" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>10103001</v>
       </c>
       <c r="E11" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>10113001</v>
       </c>
       <c r="E12" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>10123001</v>
       </c>
       <c r="E13" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>10133001</v>
       </c>
       <c r="E14" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
         <v>10143001</v>
       </c>
       <c r="E15" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>10153001</v>
       </c>
       <c r="E16" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>10163001</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
         <v>10173001</v>
       </c>
       <c r="E18" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>10183001</v>
       </c>
       <c r="E19" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1">
         <v>10193001</v>
       </c>
       <c r="E20" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
         <v>10203001</v>
       </c>
       <c r="E21" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1">
         <v>10213001</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>10223001</v>
       </c>
       <c r="E23" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>10233001</v>
       </c>
       <c r="E24" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>10243001</v>
       </c>
       <c r="E25" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>10253001</v>
       </c>
       <c r="E26" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>10263001</v>
       </c>
       <c r="E27" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>10273001</v>
       </c>
       <c r="E28" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>10283001</v>
       </c>
       <c r="E29" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>10293001</v>
       </c>
       <c r="E30" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>10303001</v>
       </c>
       <c r="E31" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>10313001</v>
       </c>
       <c r="E32" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <v>10323001</v>
       </c>
       <c r="E33" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>10333001</v>
       </c>
       <c r="E34" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>10343001</v>
       </c>
       <c r="E35" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>10353001</v>
       </c>
       <c r="E36" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>10363001</v>
       </c>
       <c r="E37" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>10373001</v>
       </c>
       <c r="E38" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D39">
         <v>10383001</v>
       </c>
       <c r="E39" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D40">
         <v>10393001</v>
       </c>
       <c r="E40" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D41">
         <v>10403001</v>
       </c>
       <c r="E41" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>10413001</v>
       </c>
       <c r="E42" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D43">
         <v>10423001</v>
       </c>
       <c r="E43" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D44">
         <v>10433001</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D45">
         <v>10443001</v>
       </c>
       <c r="E45" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D46">
         <v>10453001</v>
       </c>
       <c r="E46" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D47">
         <v>10463001</v>
       </c>
       <c r="E47" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <v>10473001</v>
       </c>
       <c r="E48" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49">
         <v>10483001</v>
       </c>
       <c r="E49" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
         <v>127</v>
@@ -3061,3522 +3794,3984 @@
         <v>10493001</v>
       </c>
       <c r="E50" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D51">
         <v>10503001</v>
       </c>
       <c r="E51" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52">
         <v>10513001</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53">
         <v>10523001</v>
       </c>
       <c r="E53">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D54">
         <v>10533001</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55">
         <v>10543001</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H55">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D56">
         <v>10553001</v>
       </c>
       <c r="E56">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H56">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57">
         <v>10563001</v>
       </c>
       <c r="E57">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H57">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D58">
         <v>10573001</v>
       </c>
       <c r="E58">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>10583001</v>
       </c>
       <c r="E59">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D60">
         <v>10593001</v>
       </c>
       <c r="E60">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D61">
         <v>10603001</v>
       </c>
       <c r="E61">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>10613001</v>
       </c>
       <c r="E62">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D63">
         <v>10623001</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64">
         <v>10633001</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>10643001</v>
       </c>
       <c r="E65">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D66">
         <v>10653001</v>
       </c>
       <c r="E66">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67">
         <v>10663001</v>
       </c>
       <c r="E67">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D68">
         <v>10673001</v>
       </c>
       <c r="E68">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D69">
         <v>10683001</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D70">
         <v>10693001</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D71">
         <v>10703001</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H71">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D72">
         <v>10713001</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H72">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D73">
         <v>10723001</v>
       </c>
       <c r="E73">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H73">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74">
         <v>10733001</v>
       </c>
       <c r="E74">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D75">
         <v>10743001</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D76">
         <v>10753001</v>
       </c>
       <c r="E76">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H76">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D77">
         <v>10763001</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H77">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78">
         <v>10773001</v>
       </c>
       <c r="E78">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H78">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D79">
         <v>10783001</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80">
         <v>10793001</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81">
         <v>10803001</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D82">
         <v>10813001</v>
       </c>
       <c r="E82">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83">
         <v>10823001</v>
       </c>
       <c r="E83">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84">
         <v>10833001</v>
       </c>
       <c r="E84">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>70</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D85">
         <v>10843001</v>
       </c>
       <c r="E85">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85">
         <v>70</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86">
         <v>10853001</v>
       </c>
       <c r="E86">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86">
         <v>70</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87">
         <v>10863001</v>
       </c>
       <c r="E87">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H87">
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D88">
         <v>10873001</v>
       </c>
       <c r="E88">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H88">
         <v>70</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D89">
         <v>10883001</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H89">
         <v>70</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D90">
         <v>10893001</v>
       </c>
       <c r="E90">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H90">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D91">
         <v>10903001</v>
       </c>
       <c r="E91">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H91">
         <v>70</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>10913001</v>
       </c>
       <c r="E92">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H92">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D93">
         <v>10923001</v>
       </c>
       <c r="E93">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H93">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D94">
         <v>10933001</v>
       </c>
       <c r="E94">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H94">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D95">
         <v>10943001</v>
       </c>
       <c r="E95">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95">
         <v>80</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D96">
         <v>10953001</v>
       </c>
       <c r="E96">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H96">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D97">
         <v>10963001</v>
       </c>
       <c r="E97">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H97">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D98">
         <v>10973001</v>
       </c>
       <c r="E98">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H98">
         <v>80</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D99">
         <v>10983001</v>
       </c>
       <c r="E99">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H99">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D100">
         <v>10993001</v>
       </c>
       <c r="E100">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101">
         <v>11003001</v>
       </c>
       <c r="E101">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>80</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D102">
         <v>11013001</v>
       </c>
       <c r="E102">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H102">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D103">
         <v>11023001</v>
       </c>
       <c r="E103">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D104">
         <v>11033001</v>
       </c>
       <c r="E104">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H104">
         <v>90</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105">
         <v>11043001</v>
       </c>
       <c r="E105">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H105">
         <v>90</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D106">
         <v>11053001</v>
       </c>
       <c r="E106">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H106">
         <v>90</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D107">
         <v>11063001</v>
       </c>
       <c r="E107">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H107">
         <v>90</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D108">
         <v>11073001</v>
       </c>
       <c r="E108">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D109">
         <v>11083001</v>
       </c>
       <c r="E109">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>90</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D110">
         <v>11093001</v>
       </c>
       <c r="E110">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D111">
         <v>11103001</v>
       </c>
       <c r="E111">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>90</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D112">
         <v>11113001</v>
       </c>
       <c r="E112">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D113">
         <v>11123001</v>
       </c>
       <c r="E113">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D114">
         <v>11133001</v>
       </c>
       <c r="E114">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114">
         <v>100</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D115">
         <v>11143001</v>
       </c>
       <c r="E115">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H115">
         <v>100</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D116">
         <v>11153001</v>
       </c>
       <c r="E116">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H116">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D117">
         <v>11163001</v>
       </c>
       <c r="E117">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H117">
         <v>100</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D118">
         <v>11173001</v>
       </c>
       <c r="E118">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H118">
         <v>100</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119">
         <v>11183001</v>
       </c>
       <c r="E119">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H119">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120">
         <v>11193001</v>
       </c>
       <c r="E120">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G120" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H120">
         <v>100</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D121">
         <v>11203001</v>
       </c>
       <c r="E121">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H121">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D122">
         <v>11213001</v>
       </c>
       <c r="E122">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H122">
         <v>110</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D123">
         <v>11223001</v>
       </c>
       <c r="E123">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H123">
         <v>110</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D124">
         <v>11233001</v>
       </c>
       <c r="E124">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124">
         <v>110</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D125">
         <v>11243001</v>
       </c>
       <c r="E125">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H125">
         <v>110</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D126">
         <v>11253001</v>
       </c>
       <c r="E126">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H126">
         <v>110</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D127">
         <v>11263001</v>
       </c>
       <c r="E127">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H127">
         <v>110</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D128">
         <v>11273001</v>
       </c>
       <c r="E128">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H128">
         <v>110</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D129">
         <v>11283001</v>
       </c>
       <c r="E129">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H129">
         <v>110</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D130">
         <v>11293001</v>
       </c>
       <c r="E130">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>110</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D131">
         <v>11303001</v>
       </c>
       <c r="E131">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>110</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D132">
         <v>11313001</v>
       </c>
       <c r="E132">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>120</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D133">
         <v>11323001</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D134">
         <v>11333001</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>120</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D135">
         <v>11343001</v>
       </c>
       <c r="E135">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H135">
         <v>120</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D136">
         <v>11353001</v>
       </c>
       <c r="E136">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H136">
         <v>120</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D137">
         <v>11363001</v>
       </c>
       <c r="E137">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H137">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D138">
         <v>11373001</v>
       </c>
       <c r="E138">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H138">
         <v>120</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D139">
         <v>11383001</v>
       </c>
       <c r="E139">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H139">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I139">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C140" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D140">
         <v>11393001</v>
       </c>
       <c r="E140">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H140">
         <v>120</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D141">
         <v>11403001</v>
       </c>
       <c r="E141">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H141">
         <v>120</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D142">
         <v>11413001</v>
       </c>
       <c r="E142">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H142">
         <v>130</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D143">
         <v>11423001</v>
       </c>
       <c r="E143">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G143" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H143">
         <v>130</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I143">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C144" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D144">
         <v>11433001</v>
       </c>
       <c r="E144">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H144">
         <v>130</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D145">
         <v>11443001</v>
       </c>
       <c r="E145">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145">
         <v>130</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I145">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D146">
         <v>11453001</v>
       </c>
       <c r="E146">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H146">
         <v>130</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D147">
         <v>11463001</v>
       </c>
       <c r="E147">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H147">
         <v>130</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D148">
         <v>11473001</v>
       </c>
       <c r="E148">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H148">
         <v>130</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I148">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D149">
         <v>11483001</v>
       </c>
       <c r="E149">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H149">
         <v>130</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I149">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C150" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D150">
         <v>11493001</v>
       </c>
       <c r="E150">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>130</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D151">
         <v>11503001</v>
       </c>
       <c r="E151">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>130</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I151">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D152">
         <v>11513001</v>
       </c>
       <c r="E152">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H152">
         <v>140</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D153">
         <v>11523001</v>
       </c>
       <c r="E153">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D154">
         <v>11533001</v>
       </c>
       <c r="E154">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H154">
         <v>140</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D155">
         <v>11543001</v>
       </c>
       <c r="E155">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H155">
         <v>140</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I155">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D156">
         <v>11553001</v>
       </c>
       <c r="E156">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H156">
         <v>140</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D157">
         <v>11563001</v>
       </c>
       <c r="E157">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H157">
         <v>140</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D158">
         <v>11573001</v>
       </c>
       <c r="E158">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>140</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D159">
         <v>11583001</v>
       </c>
       <c r="E159">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D160">
         <v>11593001</v>
       </c>
       <c r="E160">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>140</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D161">
         <v>11603001</v>
       </c>
       <c r="E161">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>140</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C162" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D162">
         <v>11613001</v>
       </c>
       <c r="E162">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>150</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I162">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D163">
         <v>11623001</v>
       </c>
       <c r="E163">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H163">
         <v>150</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I163">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D164">
         <v>11633001</v>
       </c>
       <c r="E164">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>150</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D165">
         <v>11643001</v>
       </c>
       <c r="E165">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H165">
         <v>150</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C166" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D166">
         <v>11653001</v>
       </c>
       <c r="E166">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H166">
         <v>150</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D167">
         <v>11663001</v>
       </c>
       <c r="E167">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H167">
         <v>150</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D168">
         <v>11673001</v>
       </c>
       <c r="E168">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H168">
         <v>150</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D169">
         <v>11683001</v>
       </c>
       <c r="E169">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H169">
         <v>150</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C170" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D170">
         <v>11693001</v>
       </c>
       <c r="E170">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G170" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H170">
         <v>150</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D171">
         <v>11703001</v>
       </c>
       <c r="E171">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G171" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H171">
         <v>150</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D172">
         <v>11713001</v>
       </c>
       <c r="E172">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H172">
         <v>160</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C173" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D173">
         <v>11723001</v>
       </c>
       <c r="E173">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H173">
         <v>160</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C174" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D174">
         <v>11733001</v>
       </c>
       <c r="E174">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174">
         <v>160</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C175" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D175">
         <v>11743001</v>
       </c>
       <c r="E175">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H175">
         <v>160</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D176">
         <v>11753001</v>
       </c>
       <c r="E176">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H176">
         <v>160</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C177" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D177">
         <v>11763001</v>
       </c>
       <c r="E177">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H177">
         <v>160</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I177">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D178">
         <v>11773001</v>
       </c>
       <c r="E178">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G178" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H178">
         <v>160</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C179" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D179">
         <v>11783001</v>
       </c>
       <c r="E179">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>160</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D180">
         <v>11793001</v>
       </c>
       <c r="E180">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>160</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D181">
         <v>11803001</v>
       </c>
       <c r="E181">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>160</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I181">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D182">
         <v>11813001</v>
       </c>
       <c r="E182">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>170</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I182">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D183">
         <v>11823001</v>
       </c>
       <c r="E183">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>170</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C184" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D184">
         <v>11833001</v>
       </c>
       <c r="E184">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H184">
         <v>170</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I184">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C185" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D185">
         <v>11843001</v>
       </c>
       <c r="E185">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H185">
         <v>170</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C186" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D186">
         <v>11853001</v>
       </c>
       <c r="E186">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H186">
         <v>170</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I186">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C187" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D187">
         <v>11863001</v>
       </c>
       <c r="E187">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H187">
         <v>170</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D188">
         <v>11873001</v>
       </c>
       <c r="E188">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H188">
         <v>170</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C189" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D189">
         <v>11883001</v>
       </c>
       <c r="E189">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H189">
         <v>170</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C190" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D190">
         <v>11893001</v>
       </c>
       <c r="E190">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H190">
         <v>170</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C191" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D191">
         <v>11903001</v>
       </c>
       <c r="E191">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G191" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H191">
         <v>170</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D192">
         <v>11913001</v>
       </c>
       <c r="E192">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G192" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H192">
         <v>180</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D193">
         <v>11923001</v>
       </c>
       <c r="E193">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G193" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H193">
         <v>180</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C194" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D194">
         <v>11933001</v>
       </c>
       <c r="E194">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H194">
         <v>180</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C195" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D195">
         <v>11943001</v>
       </c>
       <c r="E195">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195">
         <v>180</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C196" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D196">
         <v>11953001</v>
       </c>
       <c r="E196">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H196">
         <v>180</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C197" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D197">
         <v>11963001</v>
       </c>
       <c r="E197">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H197">
         <v>180</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C198" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D198">
         <v>11973001</v>
       </c>
       <c r="E198">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H198">
         <v>180</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C199" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D199">
         <v>11983001</v>
       </c>
       <c r="E199">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G199" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H199">
         <v>180</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C200" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D200">
         <v>11993001</v>
       </c>
       <c r="E200">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G200" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>180</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C201" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D201">
         <v>12003001</v>
       </c>
       <c r="E201">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>180</v>
       </c>
+      <c r="I201">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/g-关卡配置表.xlsx
+++ b/other/配置表/g-关卡配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A182BF-66F9-4EC0-899C-E3B7703DF29E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96FEF6C-2F7F-4234-8D3C-A27AC6A9F524}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3371,6 +3371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3762,7 +3763,7 @@
   <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3899,7 +3900,7 @@
         <v>1037</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
@@ -4169,7 +4170,7 @@
         <v>10043001</v>
       </c>
       <c r="E15" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s">
